--- a/SEMESTER 1/METODE KOMPUTASI/18-09-2024 W2.xlsx
+++ b/SEMESTER 1/METODE KOMPUTASI/18-09-2024 W2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\S2\SEMESTER 1\METODE KOMPUTASI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\S2-Pascasarjana\SEMESTER 1\METODE KOMPUTASI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C344693A-9A6D-4A2D-9ADE-A2CCBFE01CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27ACD57-756F-41D2-BFEA-DE708E0EF41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2C497C70-4C42-4CC3-8873-AD4132D145D6}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{2C497C70-4C42-4CC3-8873-AD4132D145D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bracketing Method" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>a</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>667,38/c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Rumus= f(x)</t>
@@ -133,12 +130,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,9 +156,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D361A30-6FD2-4E33-85F9-8E74EEF64E59}">
-  <dimension ref="B3:Q15"/>
+  <dimension ref="B3:Q19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,60 +776,60 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D11" si="4">(B8+C8)/2</f>
+        <f t="shared" ref="C8:D12" si="4">(B8+C8)/2</f>
         <v>15</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E11" si="5">EXP(-0.146843*B8)</f>
+        <f t="shared" ref="E8:E12" si="5">EXP(-0.146843*B8)</f>
         <v>0.12799014630730038</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F11" si="6">EXP(-0.146843*C8)</f>
+        <f t="shared" ref="F8:F12" si="6">EXP(-0.146843*C8)</f>
         <v>9.5418003728964459E-2</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G11" si="7">EXP(-0.146843*D8)</f>
+        <f t="shared" ref="G8:G12" si="7">EXP(-0.146843*D8)</f>
         <v>0.11051047125779843</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H11" si="8">1-E8</f>
+        <f t="shared" ref="H8:H12" si="8">1-E8</f>
         <v>0.87200985369269968</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:I11" si="9">1-F8</f>
+        <f t="shared" ref="I8:I12" si="9">1-F8</f>
         <v>0.90458199627103553</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J11" si="10">1-G8</f>
+        <f t="shared" ref="J8:J12" si="10">1-G8</f>
         <v>0.88948952874220155</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:K11" si="11">667.38/B8</f>
+        <f t="shared" ref="K8:K12" si="11">667.38/B8</f>
         <v>47.67</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:L11" si="12">667.38/C8</f>
+        <f t="shared" ref="L8:L12" si="12">667.38/C8</f>
         <v>41.71125</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M11" si="13">667.38/D8</f>
+        <f t="shared" ref="M8:M12" si="13">667.38/D8</f>
         <v>44.491999999999997</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8:N11" si="14">(K8*H8)-40</f>
+        <f t="shared" ref="N8:N12" si="14">(K8*H8)-40</f>
         <v>1.5687097255309936</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8:O11" si="15">(L8*I8)-40</f>
+        <f t="shared" ref="O8:O12" si="15">(L8*I8)-40</f>
         <v>-2.2687542080397662</v>
       </c>
       <c r="P8">
-        <f t="shared" ref="P8:P11" si="16">(M8*J8)-40</f>
+        <f t="shared" ref="P8:P12" si="16">(M8*J8)-40</f>
         <v>-0.42483188720196807</v>
       </c>
       <c r="Q8">
-        <f>ABS((N8-N7)/N8)*100</f>
-        <v>286.74777520600009</v>
+        <f>ABS((D8-D7)/D8)*100</f>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
@@ -833,11 +837,11 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="E9">
         <f t="shared" si="5"/>
@@ -845,11 +849,11 @@
       </c>
       <c r="F9">
         <f t="shared" si="6"/>
-        <v>0.47988201854048174</v>
+        <v>0.11051047125779843</v>
       </c>
       <c r="G9">
         <f t="shared" si="7"/>
-        <v>0.24783092979537255</v>
+        <v>0.11892960684696779</v>
       </c>
       <c r="H9">
         <f t="shared" si="8"/>
@@ -857,11 +861,11 @@
       </c>
       <c r="I9">
         <f t="shared" si="9"/>
-        <v>0.52011798145951826</v>
+        <v>0.88948952874220155</v>
       </c>
       <c r="J9">
         <f t="shared" si="10"/>
-        <v>0.75216907020462742</v>
+        <v>0.88107039315303215</v>
       </c>
       <c r="K9">
         <f t="shared" si="11"/>
@@ -869,11 +873,11 @@
       </c>
       <c r="L9">
         <f t="shared" si="12"/>
-        <v>133.476</v>
+        <v>44.491999999999997</v>
       </c>
       <c r="M9">
         <f t="shared" si="13"/>
-        <v>70.250526315789472</v>
+        <v>46.026206896551727</v>
       </c>
       <c r="N9">
         <f t="shared" si="14"/>
@@ -881,15 +885,15 @@
       </c>
       <c r="O9">
         <f t="shared" si="15"/>
-        <v>29.423267693290654</v>
+        <v>-0.42483188720196807</v>
       </c>
       <c r="P9">
         <f t="shared" si="16"/>
-        <v>12.840273060333075</v>
+        <v>0.55232820568762975</v>
       </c>
       <c r="Q9">
-        <f t="shared" ref="Q9:Q11" si="17">ABS((N9-N8)/N9)*100</f>
-        <v>0</v>
+        <f t="shared" ref="Q9:Q19" si="17">ABS((D9-D8)/D9)*100</f>
+        <v>3.4482758620689653</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
@@ -953,76 +957,583 @@
       </c>
       <c r="Q10">
         <f t="shared" si="17"/>
-        <v>184.01767452343009</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11">
+        <v>1.6949152542372881</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
         <v>14.75</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>15</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <f t="shared" si="4"/>
         <v>14.875</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <f t="shared" si="5"/>
         <v>0.1146427795334844</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <f t="shared" si="6"/>
         <v>0.11051047125779843</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <f t="shared" si="7"/>
         <v>0.11255766341102347</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <f t="shared" si="8"/>
         <v>0.88535722046651566</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <f t="shared" si="9"/>
         <v>0.88948952874220155</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <f t="shared" si="10"/>
         <v>0.88744233658897653</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <f t="shared" si="11"/>
         <v>45.246101694915254</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <f t="shared" si="12"/>
         <v>44.491999999999997</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <f t="shared" si="13"/>
         <v>44.865882352941178</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="2">
         <f t="shared" si="14"/>
         <v>5.8962833555469274E-2</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="2">
         <f t="shared" si="15"/>
         <v>-0.42483188720196807</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="2">
         <f t="shared" si="16"/>
         <v>-0.18411653157975394</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="2">
         <f t="shared" si="17"/>
-        <v>836.73959065760823</v>
+        <v>0.84033613445378152</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>14.75</v>
+      </c>
+      <c r="C12">
+        <v>14.875</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>14.8125</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="5"/>
+        <v>0.1146427795334844</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="6"/>
+        <v>0.11255766341102347</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="7"/>
+        <v>0.11359543736979096</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="8"/>
+        <v>0.88535722046651566</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="9"/>
+        <v>0.88744233658897653</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="10"/>
+        <v>0.88640456263020906</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="11"/>
+        <v>45.246101694915254</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="12"/>
+        <v>44.865882352941178</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="13"/>
+        <v>45.055189873417724</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="14"/>
+        <v>5.8962833555469274E-2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="15"/>
+        <v>-0.18411653157975394</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="16"/>
+        <v>-6.2874126032134825E-2</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="17"/>
+        <v>0.42194092827004215</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>14.75</v>
+      </c>
+      <c r="C13">
+        <v>14.75</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D19" si="18">(B13+C13)/2</f>
+        <v>14.75</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E19" si="19">EXP(-0.146843*B13)</f>
+        <v>0.1146427795334844</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F19" si="20">EXP(-0.146843*C13)</f>
+        <v>0.1146427795334844</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G19" si="21">EXP(-0.146843*D13)</f>
+        <v>0.1146427795334844</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H19" si="22">1-E13</f>
+        <v>0.88535722046651566</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:I19" si="23">1-F13</f>
+        <v>0.88535722046651566</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:J19" si="24">1-G13</f>
+        <v>0.88535722046651566</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K19" si="25">667.38/B13</f>
+        <v>45.246101694915254</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:L19" si="26">667.38/C13</f>
+        <v>45.246101694915254</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:M19" si="27">667.38/D13</f>
+        <v>45.246101694915254</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13:N19" si="28">(K13*H13)-40</f>
+        <v>5.8962833555469274E-2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13:O19" si="29">(L13*I13)-40</f>
+        <v>5.8962833555469274E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:P19" si="30">(M13*J13)-40</f>
+        <v>5.8962833555469274E-2</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13:Q19" si="31">ABS((D13-D12)/D13)*100</f>
+        <v>0.42372881355932202</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>14.75</v>
+      </c>
+      <c r="C14">
+        <v>14.625</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="18"/>
+        <v>14.6875</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="19"/>
+        <v>0.1146427795334844</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="20"/>
+        <v>0.11676652216179473</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="21"/>
+        <v>0.1156997781202987</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="22"/>
+        <v>0.88535722046651566</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="23"/>
+        <v>0.88323347783820527</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="24"/>
+        <v>0.88430022187970125</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="25"/>
+        <v>45.246101694915254</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="26"/>
+        <v>45.632820512820516</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="27"/>
+        <v>45.438638297872338</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="28"/>
+        <v>5.8962833555469274E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="29"/>
+        <v>0.30443476510505718</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="30"/>
+        <v>0.1813979287199956</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="31"/>
+        <v>0.42553191489361702</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="O15" t="s">
-        <v>17</v>
+      <c r="B15">
+        <v>14.75</v>
+      </c>
+      <c r="C15">
+        <v>14.5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="18"/>
+        <v>14.625</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="19"/>
+        <v>0.1146427795334844</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="20"/>
+        <v>0.11892960684696779</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="21"/>
+        <v>0.11676652216179473</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="22"/>
+        <v>0.88535722046651566</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="23"/>
+        <v>0.88107039315303215</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="24"/>
+        <v>0.88323347783820527</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="25"/>
+        <v>45.246101694915254</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="26"/>
+        <v>46.026206896551727</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="27"/>
+        <v>45.632820512820516</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="28"/>
+        <v>5.8962833555469274E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="29"/>
+        <v>0.55232820568762975</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="30"/>
+        <v>0.30443476510505718</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="31"/>
+        <v>0.42735042735042739</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>14.75</v>
+      </c>
+      <c r="C16">
+        <v>14.375</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="18"/>
+        <v>14.5625</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="19"/>
+        <v>0.1146427795334844</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="20"/>
+        <v>0.12113276239550654</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="21"/>
+        <v>0.11784310151039816</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="22"/>
+        <v>0.88535722046651566</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="23"/>
+        <v>0.87886723760449348</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="24"/>
+        <v>0.88215689848960188</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="25"/>
+        <v>45.246101694915254</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="26"/>
+        <v>46.426434782608695</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="27"/>
+        <v>45.828669527896999</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="28"/>
+        <v>5.8962833555469274E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="29"/>
+        <v>0.80267248921647649</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="30"/>
+        <v>0.42807697263454259</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="31"/>
+        <v>0.42918454935622319</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14.75</v>
+      </c>
+      <c r="C17">
+        <v>14.25</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="18"/>
+        <v>14.5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="19"/>
+        <v>0.1146427795334844</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="20"/>
+        <v>0.12337673111495993</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="21"/>
+        <v>0.11892960684696779</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="22"/>
+        <v>0.88535722046651566</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="23"/>
+        <v>0.87662326888504005</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="24"/>
+        <v>0.88107039315303215</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="25"/>
+        <v>45.246101694915254</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="26"/>
+        <v>46.833684210526314</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="27"/>
+        <v>46.026206896551727</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="28"/>
+        <v>5.8962833555469274E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="29"/>
+        <v>1.0554973465612676</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="30"/>
+        <v>0.55232820568762975</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="31"/>
+        <v>0.43103448275862066</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>14.75</v>
+      </c>
+      <c r="C18">
+        <v>14.125</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="18"/>
+        <v>14.4375</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="19"/>
+        <v>0.1146427795334844</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="20"/>
+        <v>0.12566226906402805</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="21"/>
+        <v>0.12002612968843394</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="22"/>
+        <v>0.88535722046651566</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="23"/>
+        <v>0.87433773093597189</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="24"/>
+        <v>0.87997387031156604</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="25"/>
+        <v>45.246101694915254</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="26"/>
+        <v>47.248141592920355</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="27"/>
+        <v>46.225454545454546</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="28"/>
+        <v>5.8962833555469274E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="29"/>
+        <v>1.3108329112954991</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="30"/>
+        <v>0.67719214327500765</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="31"/>
+        <v>0.4329004329004329</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>14.75</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="18"/>
+        <v>14.375</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="19"/>
+        <v>0.1146427795334844</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="20"/>
+        <v>0.12799014630730038</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="21"/>
+        <v>0.12113276239550654</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="22"/>
+        <v>0.88535722046651566</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="23"/>
+        <v>0.87200985369269968</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="24"/>
+        <v>0.87886723760449348</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="25"/>
+        <v>45.246101694915254</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="26"/>
+        <v>47.67</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="27"/>
+        <v>46.426434782608695</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="28"/>
+        <v>5.8962833555469274E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="29"/>
+        <v>1.5687097255309936</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="30"/>
+        <v>0.80267248921647649</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="31"/>
+        <v>0.43478260869565216</v>
       </c>
     </row>
   </sheetData>
@@ -1036,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC8195-F3F0-4A63-996F-7B6A5BC801F3}">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,31 +1558,31 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
       <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
         <v>23</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
